--- a/Planilha_de_riscos.xlsx
+++ b/Planilha_de_riscos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sersor-Vital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>DIA DA REUNIÃO</t>
   </si>
@@ -107,6 +107,36 @@
   </si>
   <si>
     <t xml:space="preserve">Atraso na entrega de deveres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de comprometimento </t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Falta de infraestrutura</t>
+  </si>
+  <si>
+    <t>Falta de comunicação</t>
+  </si>
+  <si>
+    <t>Conversando com os integrantes do grupo</t>
+  </si>
+  <si>
+    <t>Ter um plano B, rever a programação e a montagem sempre que possível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsabilidade e comprometimento </t>
+  </si>
+  <si>
+    <t>Tendo ciência que isso afetará o grupo</t>
+  </si>
+  <si>
+    <t>Planejamento do local</t>
+  </si>
+  <si>
+    <t>Ver as atualizações diárias e comparecer as reuniões</t>
   </si>
 </sst>
 </file>
@@ -340,150 +370,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -519,6 +525,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,10 +839,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -827,180 +857,202 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="24">
         <v>43923</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10">
+      <c r="C14" s="15"/>
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10">
+      <c r="C15" s="15"/>
+      <c r="D15" s="14">
         <v>2</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10">
+      <c r="C16" s="15"/>
+      <c r="D16" s="14">
         <v>3</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10">
+      <c r="C17" s="15"/>
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10">
+      <c r="C18" s="15"/>
+      <c r="D18" s="14">
         <v>5</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10">
+      <c r="C19" s="15"/>
+      <c r="D19" s="14">
         <v>6</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:C6"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H5:N6"/>
     <mergeCell ref="F11:G11"/>
@@ -1017,28 +1069,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1047,470 +1077,612 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T21"/>
+  <dimension ref="B2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:T12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="51" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="57" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40" t="s">
+      <c r="N3" s="36"/>
+      <c r="O3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
+      <c r="B7" s="40">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="39">
         <v>1</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40">
+      <c r="H7" s="30"/>
+      <c r="I7" s="39">
         <v>2</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="40">
+      <c r="J7" s="30"/>
+      <c r="K7" s="39">
         <v>2</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="40" t="s">
+      <c r="L7" s="30"/>
+      <c r="M7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="7"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="30"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="31"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="40">
         <v>2</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="40">
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="39">
         <v>2</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40">
+      <c r="H10" s="30"/>
+      <c r="I10" s="39">
         <v>3</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="40">
+      <c r="J10" s="30"/>
+      <c r="K10" s="39">
         <v>6</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="40" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="7"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="30"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="32"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="36"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="37">
+      <c r="B13" s="40">
         <v>3</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="39">
         <v>2</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40">
+      <c r="H13" s="30"/>
+      <c r="I13" s="39">
         <v>3</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="40">
+      <c r="J13" s="30"/>
+      <c r="K13" s="39">
         <v>6</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="40" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="7"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="30"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="45"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="32"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="37">
+      <c r="B16" s="40">
         <v>4</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="7"/>
+      <c r="C16" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="39">
+        <v>2</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="39">
+        <v>3</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="39">
+        <v>6</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="30"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="31"/>
-      <c r="L17" s="33"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="33"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="33"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="32"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="34"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="37">
+      <c r="B19" s="40">
         <v>5</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="7"/>
+      <c r="C19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="39">
+        <v>2</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="39">
+        <v>3</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="39">
+        <v>6</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="31"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="33"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="31"/>
-      <c r="N20" s="33"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="33"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="32"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="36"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="34"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="40">
+        <v>6</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="39">
+        <v>1</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="39">
+        <v>3</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="39">
+        <v>3</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="30"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="32"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="49">
+    <mergeCell ref="M22:N24"/>
+    <mergeCell ref="O22:T24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J24"/>
+    <mergeCell ref="K22:L24"/>
+    <mergeCell ref="O16:T18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M19:N21"/>
+    <mergeCell ref="O19:T21"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J18"/>
+    <mergeCell ref="K16:L18"/>
+    <mergeCell ref="M16:N18"/>
+    <mergeCell ref="O10:T12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="K13:L15"/>
+    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="O13:T15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J12"/>
+    <mergeCell ref="K10:L12"/>
+    <mergeCell ref="M10:N12"/>
     <mergeCell ref="K3:L6"/>
     <mergeCell ref="M3:N6"/>
     <mergeCell ref="O3:T6"/>
@@ -1525,34 +1697,6 @@
     <mergeCell ref="C3:F6"/>
     <mergeCell ref="G3:H6"/>
     <mergeCell ref="I3:J6"/>
-    <mergeCell ref="O10:T12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:F15"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J15"/>
-    <mergeCell ref="K13:L15"/>
-    <mergeCell ref="M13:N15"/>
-    <mergeCell ref="O13:T15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:F12"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J12"/>
-    <mergeCell ref="K10:L12"/>
-    <mergeCell ref="M10:N12"/>
-    <mergeCell ref="O16:T18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M19:N21"/>
-    <mergeCell ref="O19:T21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J18"/>
-    <mergeCell ref="K16:L18"/>
-    <mergeCell ref="M16:N18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
